--- a/data/trans_media/IQ23-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ23-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,19; 9,72</t>
+          <t>9,18; 9,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,2; 9,72</t>
+          <t>9,19; 9,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,94; 9,44</t>
+          <t>8,94; 9,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,66; 9,08</t>
+          <t>8,65; 9,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,22 +889,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,25; 9,75</t>
+          <t>9,24; 9,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 9,76</t>
+          <t>9,17; 9,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 9,41</t>
+          <t>8,78; 9,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,25; 9,61</t>
+          <t>9,26; 9,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,11; 9,5</t>
+          <t>9,13; 9,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 9,15</t>
+          <t>8,78; 9,16</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,5; 9,73</t>
+          <t>9,49; 9,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,73; 10,02</t>
+          <t>9,74; 10,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,27 +1019,27 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,98; 9,18</t>
+          <t>8,98; 9,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 9,74</t>
+          <t>9,47; 9,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 9,91</t>
+          <t>9,63; 9,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 9,7</t>
+          <t>9,49; 9,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,05; 9,22</t>
+          <t>9,06; 9,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,73; 9,92</t>
+          <t>9,72; 9,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,44; 9,59</t>
+          <t>9,43; 9,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 9,17</t>
+          <t>9,04; 9,18</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,67; 10,08</t>
+          <t>9,64; 10,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,27 +1154,27 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 10,07</t>
+          <t>9,62; 10,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,02; 9,28</t>
+          <t>9,03; 9,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,62; 9,96</t>
+          <t>9,62; 9,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,81; 10,28</t>
+          <t>9,83; 10,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,49; 9,94</t>
+          <t>9,5; 9,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,78; 10,11</t>
+          <t>9,79; 10,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,64; 9,95</t>
+          <t>9,63; 9,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,06; 9,25</t>
+          <t>9,07; 9,25</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1284,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,54; 9,74</t>
+          <t>9,55; 9,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,7; 9,92</t>
+          <t>9,69; 9,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,42; 9,61</t>
+          <t>9,42; 9,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,0; 9,15</t>
+          <t>9,0; 9,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,7; 9,92</t>
+          <t>9,69; 9,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,51; 9,7</t>
+          <t>9,51; 9,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,06; 9,21</t>
+          <t>9,07; 9,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,72; 9,88</t>
+          <t>9,73; 9,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
